--- a/tabtoy/Index.xlsx
+++ b/tabtoy/Index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>模式</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>level20.xlsx</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>draw41.xlsx</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1"/>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="10" ht="16.5" customHeight="1"/>
     <row r="11" ht="16.5" customHeight="1"/>
     <row r="12" ht="16.5" customHeight="1"/>
